--- a/excel_export/007119.xlsx
+++ b/excel_export/007119.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,6 +466,11 @@
           <t>net_asset</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>quarter</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -485,6 +490,11 @@
       <c r="E2" t="n">
         <v>304.39</v>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2020-4</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -504,6 +514,11 @@
       <c r="E3" t="n">
         <v>216.44</v>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2020-3</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -523,6 +538,11 @@
       <c r="E4" t="n">
         <v>176.07</v>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2020-2</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -542,6 +562,11 @@
       <c r="E5" t="n">
         <v>117.95</v>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2020-1</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -561,6 +586,11 @@
       <c r="E6" t="n">
         <v>119.35</v>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2019-4</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -580,6 +610,11 @@
       <c r="E7" t="n">
         <v>101.78</v>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2019-3</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -598,6 +633,11 @@
       </c>
       <c r="E8" t="n">
         <v>58.85</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2019-2</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -611,7 +651,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G405"/>
+  <dimension ref="A1:H405"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -655,6 +695,11 @@
           <t>bonus_per_share</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>quarter</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -682,6 +727,11 @@
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2021-1</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -709,6 +759,11 @@
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2021-1</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -736,6 +791,11 @@
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2021-1</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -763,6 +823,11 @@
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2021-1</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -790,6 +855,11 @@
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2021-1</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -817,6 +887,11 @@
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2021-1</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -844,6 +919,11 @@
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2021-1</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -871,6 +951,11 @@
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2021-1</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -898,6 +983,11 @@
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2021-1</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -925,6 +1015,11 @@
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2021-1</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -952,6 +1047,11 @@
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2021-1</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -979,6 +1079,11 @@
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2021-1</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1006,6 +1111,11 @@
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2021-1</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1033,6 +1143,11 @@
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2021-1</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1060,6 +1175,11 @@
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>2021-1</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1087,6 +1207,11 @@
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>2020-4</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1114,6 +1239,11 @@
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>2020-4</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1141,6 +1271,11 @@
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>2020-4</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1168,6 +1303,11 @@
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>2020-4</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1195,6 +1335,11 @@
         </is>
       </c>
       <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>2020-4</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1222,6 +1367,11 @@
         </is>
       </c>
       <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>2020-4</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1249,6 +1399,11 @@
         </is>
       </c>
       <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>2020-4</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1276,6 +1431,11 @@
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>2020-4</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1303,6 +1463,11 @@
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>2020-4</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1330,6 +1495,11 @@
         </is>
       </c>
       <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>2020-4</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1357,6 +1527,11 @@
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>2020-4</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1384,6 +1559,11 @@
         </is>
       </c>
       <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>2020-4</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1411,6 +1591,11 @@
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>2020-4</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1438,6 +1623,11 @@
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>2020-4</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1465,6 +1655,11 @@
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>2020-4</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1492,6 +1687,11 @@
         </is>
       </c>
       <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>2020-4</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1519,6 +1719,11 @@
         </is>
       </c>
       <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>2020-4</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1546,6 +1751,11 @@
         </is>
       </c>
       <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>2020-4</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1573,6 +1783,11 @@
         </is>
       </c>
       <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>2020-4</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1600,6 +1815,11 @@
         </is>
       </c>
       <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>2020-4</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1627,6 +1847,11 @@
         </is>
       </c>
       <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>2020-4</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1654,6 +1879,11 @@
         </is>
       </c>
       <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>2020-4</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1681,6 +1911,11 @@
         </is>
       </c>
       <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>2020-4</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1708,6 +1943,11 @@
         </is>
       </c>
       <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>2020-4</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1735,6 +1975,11 @@
         </is>
       </c>
       <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>2020-4</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1762,6 +2007,11 @@
         </is>
       </c>
       <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>2020-4</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1789,6 +2039,11 @@
         </is>
       </c>
       <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>2020-4</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1816,6 +2071,11 @@
         </is>
       </c>
       <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>2020-4</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1843,6 +2103,11 @@
         </is>
       </c>
       <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>2020-4</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1870,6 +2135,11 @@
         </is>
       </c>
       <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>2020-4</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1897,6 +2167,11 @@
         </is>
       </c>
       <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>2020-4</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1924,6 +2199,11 @@
         </is>
       </c>
       <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>2020-4</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1951,6 +2231,11 @@
         </is>
       </c>
       <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>2020-4</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1978,6 +2263,11 @@
         </is>
       </c>
       <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>2020-4</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2005,6 +2295,11 @@
         </is>
       </c>
       <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>2020-4</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2032,6 +2327,11 @@
         </is>
       </c>
       <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>2020-4</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2059,6 +2359,11 @@
         </is>
       </c>
       <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>2020-4</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2086,6 +2391,11 @@
         </is>
       </c>
       <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>2020-4</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2113,6 +2423,11 @@
         </is>
       </c>
       <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>2020-4</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2140,6 +2455,11 @@
         </is>
       </c>
       <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>2020-4</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2167,6 +2487,11 @@
         </is>
       </c>
       <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>2020-4</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2194,6 +2519,11 @@
         </is>
       </c>
       <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>2020-4</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2221,6 +2551,11 @@
         </is>
       </c>
       <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>2020-4</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2248,6 +2583,11 @@
         </is>
       </c>
       <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>2020-4</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2275,6 +2615,11 @@
         </is>
       </c>
       <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>2020-4</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2302,6 +2647,11 @@
         </is>
       </c>
       <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>2020-4</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2329,6 +2679,11 @@
         </is>
       </c>
       <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>2020-4</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -2356,6 +2711,11 @@
         </is>
       </c>
       <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>2020-4</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -2383,6 +2743,11 @@
         </is>
       </c>
       <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>2020-4</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -2410,6 +2775,11 @@
         </is>
       </c>
       <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>2020-4</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -2437,6 +2807,11 @@
         </is>
       </c>
       <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>2020-4</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -2464,6 +2839,11 @@
         </is>
       </c>
       <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>2020-4</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -2491,6 +2871,11 @@
         </is>
       </c>
       <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>2020-4</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -2518,6 +2903,11 @@
         </is>
       </c>
       <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>2020-4</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -2545,6 +2935,11 @@
         </is>
       </c>
       <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>2020-4</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -2572,6 +2967,11 @@
         </is>
       </c>
       <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>2020-4</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -2599,6 +2999,11 @@
         </is>
       </c>
       <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>2020-4</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -2626,6 +3031,11 @@
         </is>
       </c>
       <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>2020-4</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -2653,6 +3063,11 @@
         </is>
       </c>
       <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>2020-4</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -2680,6 +3095,11 @@
         </is>
       </c>
       <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>2020-4</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -2707,6 +3127,11 @@
         </is>
       </c>
       <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>2020-3</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -2734,6 +3159,11 @@
         </is>
       </c>
       <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>2020-3</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -2761,6 +3191,11 @@
         </is>
       </c>
       <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>2020-3</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -2788,6 +3223,11 @@
         </is>
       </c>
       <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>2020-3</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -2815,6 +3255,11 @@
         </is>
       </c>
       <c r="G81" t="inlineStr"/>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>2020-3</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -2842,6 +3287,11 @@
         </is>
       </c>
       <c r="G82" t="inlineStr"/>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>2020-3</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -2869,6 +3319,11 @@
         </is>
       </c>
       <c r="G83" t="inlineStr"/>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>2020-3</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -2896,6 +3351,11 @@
         </is>
       </c>
       <c r="G84" t="inlineStr"/>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>2020-3</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -2923,6 +3383,11 @@
         </is>
       </c>
       <c r="G85" t="inlineStr"/>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>2020-3</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -2950,6 +3415,11 @@
         </is>
       </c>
       <c r="G86" t="inlineStr"/>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>2020-3</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -2977,6 +3447,11 @@
         </is>
       </c>
       <c r="G87" t="inlineStr"/>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>2020-3</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -3004,6 +3479,11 @@
         </is>
       </c>
       <c r="G88" t="inlineStr"/>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>2020-3</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -3031,6 +3511,11 @@
         </is>
       </c>
       <c r="G89" t="inlineStr"/>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>2020-3</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -3058,6 +3543,11 @@
         </is>
       </c>
       <c r="G90" t="inlineStr"/>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>2020-3</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -3085,6 +3575,11 @@
         </is>
       </c>
       <c r="G91" t="inlineStr"/>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>2020-3</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -3112,6 +3607,11 @@
         </is>
       </c>
       <c r="G92" t="inlineStr"/>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>2020-3</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -3139,6 +3639,11 @@
         </is>
       </c>
       <c r="G93" t="inlineStr"/>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>2020-3</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -3166,6 +3671,11 @@
         </is>
       </c>
       <c r="G94" t="inlineStr"/>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>2020-3</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -3193,6 +3703,11 @@
         </is>
       </c>
       <c r="G95" t="inlineStr"/>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>2020-3</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -3220,6 +3735,11 @@
         </is>
       </c>
       <c r="G96" t="inlineStr"/>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>2020-3</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -3247,6 +3767,11 @@
         </is>
       </c>
       <c r="G97" t="inlineStr"/>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>2020-3</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -3274,6 +3799,11 @@
         </is>
       </c>
       <c r="G98" t="inlineStr"/>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>2020-3</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -3301,6 +3831,11 @@
         </is>
       </c>
       <c r="G99" t="inlineStr"/>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>2020-3</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -3328,6 +3863,11 @@
         </is>
       </c>
       <c r="G100" t="inlineStr"/>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>2020-3</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -3355,6 +3895,11 @@
         </is>
       </c>
       <c r="G101" t="inlineStr"/>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>2020-3</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -3382,6 +3927,11 @@
         </is>
       </c>
       <c r="G102" t="inlineStr"/>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>2020-3</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -3409,6 +3959,11 @@
         </is>
       </c>
       <c r="G103" t="inlineStr"/>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>2020-3</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -3436,6 +3991,11 @@
         </is>
       </c>
       <c r="G104" t="inlineStr"/>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>2020-3</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -3463,6 +4023,11 @@
         </is>
       </c>
       <c r="G105" t="inlineStr"/>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>2020-3</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -3490,6 +4055,11 @@
         </is>
       </c>
       <c r="G106" t="inlineStr"/>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>2020-3</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -3517,6 +4087,11 @@
         </is>
       </c>
       <c r="G107" t="inlineStr"/>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>2020-3</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -3544,6 +4119,11 @@
         </is>
       </c>
       <c r="G108" t="inlineStr"/>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>2020-3</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -3571,6 +4151,11 @@
         </is>
       </c>
       <c r="G109" t="inlineStr"/>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>2020-3</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -3598,6 +4183,11 @@
         </is>
       </c>
       <c r="G110" t="inlineStr"/>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>2020-3</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -3625,6 +4215,11 @@
         </is>
       </c>
       <c r="G111" t="inlineStr"/>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>2020-3</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -3652,6 +4247,11 @@
         </is>
       </c>
       <c r="G112" t="inlineStr"/>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>2020-3</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -3679,6 +4279,11 @@
         </is>
       </c>
       <c r="G113" t="inlineStr"/>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>2020-3</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -3706,6 +4311,11 @@
         </is>
       </c>
       <c r="G114" t="inlineStr"/>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>2020-3</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -3733,6 +4343,11 @@
         </is>
       </c>
       <c r="G115" t="inlineStr"/>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>2020-3</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -3760,6 +4375,11 @@
         </is>
       </c>
       <c r="G116" t="inlineStr"/>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>2020-3</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -3787,6 +4407,11 @@
         </is>
       </c>
       <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>2020-3</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -3814,6 +4439,11 @@
         </is>
       </c>
       <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>2020-3</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -3841,6 +4471,11 @@
         </is>
       </c>
       <c r="G119" t="inlineStr"/>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>2020-3</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -3868,6 +4503,11 @@
         </is>
       </c>
       <c r="G120" t="inlineStr"/>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>2020-3</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -3895,6 +4535,11 @@
         </is>
       </c>
       <c r="G121" t="inlineStr"/>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>2020-3</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -3922,6 +4567,11 @@
         </is>
       </c>
       <c r="G122" t="inlineStr"/>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>2020-3</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -3949,6 +4599,11 @@
         </is>
       </c>
       <c r="G123" t="inlineStr"/>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>2020-3</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -3976,6 +4631,11 @@
         </is>
       </c>
       <c r="G124" t="inlineStr"/>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>2020-3</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -4003,6 +4663,11 @@
         </is>
       </c>
       <c r="G125" t="inlineStr"/>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>2020-3</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -4030,6 +4695,11 @@
         </is>
       </c>
       <c r="G126" t="inlineStr"/>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>2020-3</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -4057,6 +4727,11 @@
         </is>
       </c>
       <c r="G127" t="inlineStr"/>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>2020-3</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -4084,6 +4759,11 @@
         </is>
       </c>
       <c r="G128" t="inlineStr"/>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>2020-3</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -4111,6 +4791,11 @@
         </is>
       </c>
       <c r="G129" t="inlineStr"/>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>2020-3</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -4138,6 +4823,11 @@
         </is>
       </c>
       <c r="G130" t="inlineStr"/>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>2020-3</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -4165,6 +4855,11 @@
         </is>
       </c>
       <c r="G131" t="inlineStr"/>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>2020-3</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -4192,6 +4887,11 @@
         </is>
       </c>
       <c r="G132" t="inlineStr"/>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>2020-3</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -4219,6 +4919,11 @@
         </is>
       </c>
       <c r="G133" t="inlineStr"/>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>2020-3</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -4246,6 +4951,11 @@
         </is>
       </c>
       <c r="G134" t="inlineStr"/>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>2020-3</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -4273,6 +4983,11 @@
         </is>
       </c>
       <c r="G135" t="inlineStr"/>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>2020-3</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -4300,6 +5015,11 @@
         </is>
       </c>
       <c r="G136" t="inlineStr"/>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>2020-3</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -4327,6 +5047,11 @@
         </is>
       </c>
       <c r="G137" t="inlineStr"/>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>2020-3</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -4354,6 +5079,11 @@
         </is>
       </c>
       <c r="G138" t="inlineStr"/>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>2020-3</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -4381,6 +5111,11 @@
         </is>
       </c>
       <c r="G139" t="inlineStr"/>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>2020-3</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -4408,6 +5143,11 @@
         </is>
       </c>
       <c r="G140" t="inlineStr"/>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>2020-3</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -4435,6 +5175,11 @@
         </is>
       </c>
       <c r="G141" t="inlineStr"/>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>2020-3</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -4462,6 +5207,11 @@
         </is>
       </c>
       <c r="G142" t="inlineStr"/>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>2020-3</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -4489,6 +5239,11 @@
         </is>
       </c>
       <c r="G143" t="inlineStr"/>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>2020-2</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -4516,6 +5271,11 @@
         </is>
       </c>
       <c r="G144" t="inlineStr"/>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>2020-2</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -4543,6 +5303,11 @@
         </is>
       </c>
       <c r="G145" t="inlineStr"/>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>2020-2</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -4570,6 +5335,11 @@
         </is>
       </c>
       <c r="G146" t="inlineStr"/>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>2020-2</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -4597,6 +5367,11 @@
         </is>
       </c>
       <c r="G147" t="inlineStr"/>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>2020-2</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -4624,6 +5399,11 @@
         </is>
       </c>
       <c r="G148" t="inlineStr"/>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>2020-2</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -4651,6 +5431,11 @@
         </is>
       </c>
       <c r="G149" t="inlineStr"/>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>2020-2</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -4678,6 +5463,11 @@
         </is>
       </c>
       <c r="G150" t="inlineStr"/>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>2020-2</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -4705,6 +5495,11 @@
         </is>
       </c>
       <c r="G151" t="inlineStr"/>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>2020-2</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -4732,6 +5527,11 @@
         </is>
       </c>
       <c r="G152" t="inlineStr"/>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>2020-2</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -4759,6 +5559,11 @@
         </is>
       </c>
       <c r="G153" t="inlineStr"/>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>2020-2</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -4786,6 +5591,11 @@
         </is>
       </c>
       <c r="G154" t="inlineStr"/>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>2020-2</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -4813,6 +5623,11 @@
         </is>
       </c>
       <c r="G155" t="inlineStr"/>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>2020-2</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -4840,6 +5655,11 @@
         </is>
       </c>
       <c r="G156" t="inlineStr"/>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>2020-2</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -4867,6 +5687,11 @@
         </is>
       </c>
       <c r="G157" t="inlineStr"/>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>2020-2</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -4894,6 +5719,11 @@
         </is>
       </c>
       <c r="G158" t="inlineStr"/>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>2020-2</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -4921,6 +5751,11 @@
         </is>
       </c>
       <c r="G159" t="inlineStr"/>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>2020-2</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -4948,6 +5783,11 @@
         </is>
       </c>
       <c r="G160" t="inlineStr"/>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>2020-2</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -4975,6 +5815,11 @@
         </is>
       </c>
       <c r="G161" t="inlineStr"/>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>2020-2</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -5002,6 +5847,11 @@
         </is>
       </c>
       <c r="G162" t="inlineStr"/>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>2020-2</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -5029,6 +5879,11 @@
         </is>
       </c>
       <c r="G163" t="inlineStr"/>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>2020-2</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -5056,6 +5911,11 @@
         </is>
       </c>
       <c r="G164" t="inlineStr"/>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>2020-2</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -5083,6 +5943,11 @@
         </is>
       </c>
       <c r="G165" t="inlineStr"/>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>2020-2</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -5110,6 +5975,11 @@
         </is>
       </c>
       <c r="G166" t="inlineStr"/>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>2020-2</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -5137,6 +6007,11 @@
         </is>
       </c>
       <c r="G167" t="inlineStr"/>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>2020-2</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -5164,6 +6039,11 @@
         </is>
       </c>
       <c r="G168" t="inlineStr"/>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>2020-2</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -5191,6 +6071,11 @@
         </is>
       </c>
       <c r="G169" t="inlineStr"/>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>2020-2</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -5218,6 +6103,11 @@
         </is>
       </c>
       <c r="G170" t="inlineStr"/>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>2020-2</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -5245,6 +6135,11 @@
         </is>
       </c>
       <c r="G171" t="inlineStr"/>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>2020-2</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -5272,6 +6167,11 @@
         </is>
       </c>
       <c r="G172" t="inlineStr"/>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>2020-2</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -5299,6 +6199,11 @@
         </is>
       </c>
       <c r="G173" t="inlineStr"/>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>2020-2</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -5326,6 +6231,11 @@
         </is>
       </c>
       <c r="G174" t="inlineStr"/>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>2020-2</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -5353,6 +6263,11 @@
         </is>
       </c>
       <c r="G175" t="inlineStr"/>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>2020-2</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -5380,6 +6295,11 @@
         </is>
       </c>
       <c r="G176" t="inlineStr"/>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>2020-2</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -5407,6 +6327,11 @@
         </is>
       </c>
       <c r="G177" t="inlineStr"/>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>2020-2</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -5434,6 +6359,11 @@
         </is>
       </c>
       <c r="G178" t="inlineStr"/>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>2020-2</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -5461,6 +6391,11 @@
         </is>
       </c>
       <c r="G179" t="inlineStr"/>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>2020-2</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -5488,6 +6423,11 @@
         </is>
       </c>
       <c r="G180" t="inlineStr"/>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>2020-2</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -5515,6 +6455,11 @@
         </is>
       </c>
       <c r="G181" t="inlineStr"/>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>2020-2</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -5542,6 +6487,11 @@
         </is>
       </c>
       <c r="G182" t="inlineStr"/>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>2020-2</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -5569,6 +6519,11 @@
         </is>
       </c>
       <c r="G183" t="inlineStr"/>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>2020-2</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -5596,6 +6551,11 @@
         </is>
       </c>
       <c r="G184" t="inlineStr"/>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>2020-2</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -5623,6 +6583,11 @@
         </is>
       </c>
       <c r="G185" t="inlineStr"/>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>2020-2</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -5650,6 +6615,11 @@
         </is>
       </c>
       <c r="G186" t="inlineStr"/>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>2020-2</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -5677,6 +6647,11 @@
         </is>
       </c>
       <c r="G187" t="inlineStr"/>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>2020-2</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -5704,6 +6679,11 @@
         </is>
       </c>
       <c r="G188" t="inlineStr"/>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>2020-2</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -5731,6 +6711,11 @@
         </is>
       </c>
       <c r="G189" t="inlineStr"/>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>2020-2</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -5758,6 +6743,11 @@
         </is>
       </c>
       <c r="G190" t="inlineStr"/>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>2020-2</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -5785,6 +6775,11 @@
         </is>
       </c>
       <c r="G191" t="inlineStr"/>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>2020-2</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -5812,6 +6807,11 @@
         </is>
       </c>
       <c r="G192" t="inlineStr"/>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>2020-2</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -5839,6 +6839,11 @@
         </is>
       </c>
       <c r="G193" t="inlineStr"/>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>2020-2</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -5866,6 +6871,11 @@
         </is>
       </c>
       <c r="G194" t="inlineStr"/>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>2020-2</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -5893,6 +6903,11 @@
         </is>
       </c>
       <c r="G195" t="inlineStr"/>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>2020-2</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -5920,6 +6935,11 @@
         </is>
       </c>
       <c r="G196" t="inlineStr"/>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>2020-2</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -5947,6 +6967,11 @@
         </is>
       </c>
       <c r="G197" t="inlineStr"/>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>2020-2</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -5974,6 +6999,11 @@
         </is>
       </c>
       <c r="G198" t="inlineStr"/>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>2020-2</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -6001,6 +7031,11 @@
         </is>
       </c>
       <c r="G199" t="inlineStr"/>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>2020-2</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -6028,6 +7063,11 @@
         </is>
       </c>
       <c r="G200" t="inlineStr"/>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>2020-2</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -6055,6 +7095,11 @@
         </is>
       </c>
       <c r="G201" t="inlineStr"/>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>2020-2</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -6082,6 +7127,11 @@
         </is>
       </c>
       <c r="G202" t="inlineStr"/>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>2020-1</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -6109,6 +7159,11 @@
         </is>
       </c>
       <c r="G203" t="inlineStr"/>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>2020-1</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -6136,6 +7191,11 @@
         </is>
       </c>
       <c r="G204" t="inlineStr"/>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>2020-1</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -6163,6 +7223,11 @@
         </is>
       </c>
       <c r="G205" t="inlineStr"/>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>2020-1</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -6190,6 +7255,11 @@
         </is>
       </c>
       <c r="G206" t="inlineStr"/>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>2020-1</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -6217,6 +7287,11 @@
         </is>
       </c>
       <c r="G207" t="inlineStr"/>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>2020-1</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -6244,6 +7319,11 @@
         </is>
       </c>
       <c r="G208" t="inlineStr"/>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>2020-1</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -6271,6 +7351,11 @@
         </is>
       </c>
       <c r="G209" t="inlineStr"/>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>2020-1</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -6298,6 +7383,11 @@
         </is>
       </c>
       <c r="G210" t="inlineStr"/>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>2020-1</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -6325,6 +7415,11 @@
         </is>
       </c>
       <c r="G211" t="inlineStr"/>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>2020-1</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -6352,6 +7447,11 @@
         </is>
       </c>
       <c r="G212" t="inlineStr"/>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>2020-1</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -6379,6 +7479,11 @@
         </is>
       </c>
       <c r="G213" t="inlineStr"/>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>2020-1</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -6406,6 +7511,11 @@
         </is>
       </c>
       <c r="G214" t="inlineStr"/>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>2020-1</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -6433,6 +7543,11 @@
         </is>
       </c>
       <c r="G215" t="inlineStr"/>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>2020-1</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -6460,6 +7575,11 @@
         </is>
       </c>
       <c r="G216" t="inlineStr"/>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>2020-1</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -6487,6 +7607,11 @@
         </is>
       </c>
       <c r="G217" t="inlineStr"/>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>2020-1</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -6514,6 +7639,11 @@
         </is>
       </c>
       <c r="G218" t="inlineStr"/>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>2020-1</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -6541,6 +7671,11 @@
         </is>
       </c>
       <c r="G219" t="inlineStr"/>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>2020-1</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -6568,6 +7703,11 @@
         </is>
       </c>
       <c r="G220" t="inlineStr"/>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>2020-1</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -6595,6 +7735,11 @@
         </is>
       </c>
       <c r="G221" t="inlineStr"/>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>2020-1</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -6622,6 +7767,11 @@
         </is>
       </c>
       <c r="G222" t="inlineStr"/>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>2020-1</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -6649,6 +7799,11 @@
         </is>
       </c>
       <c r="G223" t="inlineStr"/>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>2020-1</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -6676,6 +7831,11 @@
         </is>
       </c>
       <c r="G224" t="inlineStr"/>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>2020-1</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -6703,6 +7863,11 @@
         </is>
       </c>
       <c r="G225" t="inlineStr"/>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>2020-1</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -6730,6 +7895,11 @@
         </is>
       </c>
       <c r="G226" t="inlineStr"/>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>2020-1</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -6757,6 +7927,11 @@
         </is>
       </c>
       <c r="G227" t="inlineStr"/>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>2020-1</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -6784,6 +7959,11 @@
         </is>
       </c>
       <c r="G228" t="inlineStr"/>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>2020-1</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -6811,6 +7991,11 @@
         </is>
       </c>
       <c r="G229" t="inlineStr"/>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>2020-1</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -6838,6 +8023,11 @@
         </is>
       </c>
       <c r="G230" t="inlineStr"/>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>2020-1</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -6865,6 +8055,11 @@
         </is>
       </c>
       <c r="G231" t="inlineStr"/>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>2020-1</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -6892,6 +8087,11 @@
         </is>
       </c>
       <c r="G232" t="inlineStr"/>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>2020-1</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -6919,6 +8119,11 @@
         </is>
       </c>
       <c r="G233" t="inlineStr"/>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>2020-1</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -6946,6 +8151,11 @@
         </is>
       </c>
       <c r="G234" t="inlineStr"/>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>2020-1</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -6973,6 +8183,11 @@
         </is>
       </c>
       <c r="G235" t="inlineStr"/>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>2020-1</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -7000,6 +8215,11 @@
         </is>
       </c>
       <c r="G236" t="inlineStr"/>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>2020-1</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -7027,6 +8247,11 @@
         </is>
       </c>
       <c r="G237" t="inlineStr"/>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>2020-1</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -7054,6 +8279,11 @@
         </is>
       </c>
       <c r="G238" t="inlineStr"/>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>2020-1</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -7081,6 +8311,11 @@
         </is>
       </c>
       <c r="G239" t="inlineStr"/>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>2020-1</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -7108,6 +8343,11 @@
         </is>
       </c>
       <c r="G240" t="inlineStr"/>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>2020-1</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -7135,6 +8375,11 @@
         </is>
       </c>
       <c r="G241" t="inlineStr"/>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>2020-1</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -7162,6 +8407,11 @@
         </is>
       </c>
       <c r="G242" t="inlineStr"/>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>2020-1</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -7189,6 +8439,11 @@
         </is>
       </c>
       <c r="G243" t="inlineStr"/>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>2020-1</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -7216,6 +8471,11 @@
         </is>
       </c>
       <c r="G244" t="inlineStr"/>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>2020-1</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -7243,6 +8503,11 @@
         </is>
       </c>
       <c r="G245" t="inlineStr"/>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>2020-1</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -7270,6 +8535,11 @@
         </is>
       </c>
       <c r="G246" t="inlineStr"/>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>2020-1</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -7297,6 +8567,11 @@
         </is>
       </c>
       <c r="G247" t="inlineStr"/>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>2020-1</t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -7324,6 +8599,11 @@
         </is>
       </c>
       <c r="G248" t="inlineStr"/>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>2020-1</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -7351,6 +8631,11 @@
         </is>
       </c>
       <c r="G249" t="inlineStr"/>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>2020-1</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -7378,6 +8663,11 @@
         </is>
       </c>
       <c r="G250" t="inlineStr"/>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>2020-1</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -7405,6 +8695,11 @@
         </is>
       </c>
       <c r="G251" t="inlineStr"/>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>2020-1</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -7432,6 +8727,11 @@
         </is>
       </c>
       <c r="G252" t="inlineStr"/>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>2020-1</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -7459,6 +8759,11 @@
         </is>
       </c>
       <c r="G253" t="inlineStr"/>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>2020-1</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -7486,6 +8791,11 @@
         </is>
       </c>
       <c r="G254" t="inlineStr"/>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>2020-1</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -7513,6 +8823,11 @@
         </is>
       </c>
       <c r="G255" t="inlineStr"/>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>2020-1</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -7540,6 +8855,11 @@
         </is>
       </c>
       <c r="G256" t="inlineStr"/>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>2020-1</t>
+        </is>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -7567,6 +8887,11 @@
         </is>
       </c>
       <c r="G257" t="inlineStr"/>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>2020-1</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -7594,6 +8919,11 @@
         </is>
       </c>
       <c r="G258" t="inlineStr"/>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>2020-1</t>
+        </is>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -7621,6 +8951,11 @@
         </is>
       </c>
       <c r="G259" t="inlineStr"/>
+      <c r="H259" t="inlineStr">
+        <is>
+          <t>2020-1</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -7648,6 +8983,11 @@
         </is>
       </c>
       <c r="G260" t="inlineStr"/>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>2019-4</t>
+        </is>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -7675,6 +9015,11 @@
         </is>
       </c>
       <c r="G261" t="inlineStr"/>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>2019-4</t>
+        </is>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -7702,6 +9047,11 @@
         </is>
       </c>
       <c r="G262" t="inlineStr"/>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>2019-4</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -7729,6 +9079,11 @@
         </is>
       </c>
       <c r="G263" t="inlineStr"/>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>2019-4</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -7756,6 +9111,11 @@
         </is>
       </c>
       <c r="G264" t="inlineStr"/>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>2019-4</t>
+        </is>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -7783,6 +9143,11 @@
         </is>
       </c>
       <c r="G265" t="inlineStr"/>
+      <c r="H265" t="inlineStr">
+        <is>
+          <t>2019-4</t>
+        </is>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -7810,6 +9175,11 @@
         </is>
       </c>
       <c r="G266" t="inlineStr"/>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>2019-4</t>
+        </is>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -7837,6 +9207,11 @@
         </is>
       </c>
       <c r="G267" t="inlineStr"/>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>2019-4</t>
+        </is>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -7864,6 +9239,11 @@
         </is>
       </c>
       <c r="G268" t="inlineStr"/>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>2019-4</t>
+        </is>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -7891,6 +9271,11 @@
         </is>
       </c>
       <c r="G269" t="inlineStr"/>
+      <c r="H269" t="inlineStr">
+        <is>
+          <t>2019-4</t>
+        </is>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -7918,6 +9303,11 @@
         </is>
       </c>
       <c r="G270" t="inlineStr"/>
+      <c r="H270" t="inlineStr">
+        <is>
+          <t>2019-4</t>
+        </is>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -7945,6 +9335,11 @@
         </is>
       </c>
       <c r="G271" t="inlineStr"/>
+      <c r="H271" t="inlineStr">
+        <is>
+          <t>2019-4</t>
+        </is>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -7972,6 +9367,11 @@
         </is>
       </c>
       <c r="G272" t="inlineStr"/>
+      <c r="H272" t="inlineStr">
+        <is>
+          <t>2019-4</t>
+        </is>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -7999,6 +9399,11 @@
         </is>
       </c>
       <c r="G273" t="inlineStr"/>
+      <c r="H273" t="inlineStr">
+        <is>
+          <t>2019-4</t>
+        </is>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -8026,6 +9431,11 @@
         </is>
       </c>
       <c r="G274" t="inlineStr"/>
+      <c r="H274" t="inlineStr">
+        <is>
+          <t>2019-4</t>
+        </is>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -8053,6 +9463,11 @@
         </is>
       </c>
       <c r="G275" t="inlineStr"/>
+      <c r="H275" t="inlineStr">
+        <is>
+          <t>2019-4</t>
+        </is>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -8080,6 +9495,11 @@
         </is>
       </c>
       <c r="G276" t="inlineStr"/>
+      <c r="H276" t="inlineStr">
+        <is>
+          <t>2019-4</t>
+        </is>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -8107,6 +9527,11 @@
         </is>
       </c>
       <c r="G277" t="inlineStr"/>
+      <c r="H277" t="inlineStr">
+        <is>
+          <t>2019-4</t>
+        </is>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -8134,6 +9559,11 @@
         </is>
       </c>
       <c r="G278" t="inlineStr"/>
+      <c r="H278" t="inlineStr">
+        <is>
+          <t>2019-4</t>
+        </is>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -8161,6 +9591,11 @@
         </is>
       </c>
       <c r="G279" t="inlineStr"/>
+      <c r="H279" t="inlineStr">
+        <is>
+          <t>2019-4</t>
+        </is>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -8188,6 +9623,11 @@
         </is>
       </c>
       <c r="G280" t="inlineStr"/>
+      <c r="H280" t="inlineStr">
+        <is>
+          <t>2019-4</t>
+        </is>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -8215,6 +9655,11 @@
         </is>
       </c>
       <c r="G281" t="inlineStr"/>
+      <c r="H281" t="inlineStr">
+        <is>
+          <t>2019-4</t>
+        </is>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -8242,6 +9687,11 @@
         </is>
       </c>
       <c r="G282" t="inlineStr"/>
+      <c r="H282" t="inlineStr">
+        <is>
+          <t>2019-4</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -8269,6 +9719,11 @@
         </is>
       </c>
       <c r="G283" t="inlineStr"/>
+      <c r="H283" t="inlineStr">
+        <is>
+          <t>2019-4</t>
+        </is>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -8296,6 +9751,11 @@
         </is>
       </c>
       <c r="G284" t="inlineStr"/>
+      <c r="H284" t="inlineStr">
+        <is>
+          <t>2019-4</t>
+        </is>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -8323,6 +9783,11 @@
         </is>
       </c>
       <c r="G285" t="inlineStr"/>
+      <c r="H285" t="inlineStr">
+        <is>
+          <t>2019-4</t>
+        </is>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -8350,6 +9815,11 @@
         </is>
       </c>
       <c r="G286" t="inlineStr"/>
+      <c r="H286" t="inlineStr">
+        <is>
+          <t>2019-4</t>
+        </is>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -8377,6 +9847,11 @@
         </is>
       </c>
       <c r="G287" t="inlineStr"/>
+      <c r="H287" t="inlineStr">
+        <is>
+          <t>2019-4</t>
+        </is>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -8404,6 +9879,11 @@
         </is>
       </c>
       <c r="G288" t="inlineStr"/>
+      <c r="H288" t="inlineStr">
+        <is>
+          <t>2019-4</t>
+        </is>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -8431,6 +9911,11 @@
         </is>
       </c>
       <c r="G289" t="inlineStr"/>
+      <c r="H289" t="inlineStr">
+        <is>
+          <t>2019-4</t>
+        </is>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -8458,6 +9943,11 @@
         </is>
       </c>
       <c r="G290" t="inlineStr"/>
+      <c r="H290" t="inlineStr">
+        <is>
+          <t>2019-4</t>
+        </is>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -8485,6 +9975,11 @@
         </is>
       </c>
       <c r="G291" t="inlineStr"/>
+      <c r="H291" t="inlineStr">
+        <is>
+          <t>2019-4</t>
+        </is>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -8512,6 +10007,11 @@
         </is>
       </c>
       <c r="G292" t="inlineStr"/>
+      <c r="H292" t="inlineStr">
+        <is>
+          <t>2019-4</t>
+        </is>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -8539,6 +10039,11 @@
         </is>
       </c>
       <c r="G293" t="inlineStr"/>
+      <c r="H293" t="inlineStr">
+        <is>
+          <t>2019-4</t>
+        </is>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -8566,6 +10071,11 @@
         </is>
       </c>
       <c r="G294" t="inlineStr"/>
+      <c r="H294" t="inlineStr">
+        <is>
+          <t>2019-4</t>
+        </is>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -8593,6 +10103,11 @@
         </is>
       </c>
       <c r="G295" t="inlineStr"/>
+      <c r="H295" t="inlineStr">
+        <is>
+          <t>2019-4</t>
+        </is>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -8620,6 +10135,11 @@
         </is>
       </c>
       <c r="G296" t="inlineStr"/>
+      <c r="H296" t="inlineStr">
+        <is>
+          <t>2019-4</t>
+        </is>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -8647,6 +10167,11 @@
         </is>
       </c>
       <c r="G297" t="inlineStr"/>
+      <c r="H297" t="inlineStr">
+        <is>
+          <t>2019-4</t>
+        </is>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -8674,6 +10199,11 @@
         </is>
       </c>
       <c r="G298" t="inlineStr"/>
+      <c r="H298" t="inlineStr">
+        <is>
+          <t>2019-4</t>
+        </is>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -8701,6 +10231,11 @@
         </is>
       </c>
       <c r="G299" t="inlineStr"/>
+      <c r="H299" t="inlineStr">
+        <is>
+          <t>2019-4</t>
+        </is>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -8728,6 +10263,11 @@
         </is>
       </c>
       <c r="G300" t="inlineStr"/>
+      <c r="H300" t="inlineStr">
+        <is>
+          <t>2019-4</t>
+        </is>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -8755,6 +10295,11 @@
         </is>
       </c>
       <c r="G301" t="inlineStr"/>
+      <c r="H301" t="inlineStr">
+        <is>
+          <t>2019-4</t>
+        </is>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -8782,6 +10327,11 @@
         </is>
       </c>
       <c r="G302" t="inlineStr"/>
+      <c r="H302" t="inlineStr">
+        <is>
+          <t>2019-4</t>
+        </is>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -8809,6 +10359,11 @@
         </is>
       </c>
       <c r="G303" t="inlineStr"/>
+      <c r="H303" t="inlineStr">
+        <is>
+          <t>2019-4</t>
+        </is>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -8836,6 +10391,11 @@
         </is>
       </c>
       <c r="G304" t="inlineStr"/>
+      <c r="H304" t="inlineStr">
+        <is>
+          <t>2019-4</t>
+        </is>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -8863,6 +10423,11 @@
         </is>
       </c>
       <c r="G305" t="inlineStr"/>
+      <c r="H305" t="inlineStr">
+        <is>
+          <t>2019-4</t>
+        </is>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -8890,6 +10455,11 @@
         </is>
       </c>
       <c r="G306" t="inlineStr"/>
+      <c r="H306" t="inlineStr">
+        <is>
+          <t>2019-4</t>
+        </is>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -8917,6 +10487,11 @@
         </is>
       </c>
       <c r="G307" t="inlineStr"/>
+      <c r="H307" t="inlineStr">
+        <is>
+          <t>2019-4</t>
+        </is>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -8944,6 +10519,11 @@
         </is>
       </c>
       <c r="G308" t="inlineStr"/>
+      <c r="H308" t="inlineStr">
+        <is>
+          <t>2019-4</t>
+        </is>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -8971,6 +10551,11 @@
         </is>
       </c>
       <c r="G309" t="inlineStr"/>
+      <c r="H309" t="inlineStr">
+        <is>
+          <t>2019-4</t>
+        </is>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -8998,6 +10583,11 @@
         </is>
       </c>
       <c r="G310" t="inlineStr"/>
+      <c r="H310" t="inlineStr">
+        <is>
+          <t>2019-4</t>
+        </is>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -9025,6 +10615,11 @@
         </is>
       </c>
       <c r="G311" t="inlineStr"/>
+      <c r="H311" t="inlineStr">
+        <is>
+          <t>2019-4</t>
+        </is>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -9052,6 +10647,11 @@
         </is>
       </c>
       <c r="G312" t="inlineStr"/>
+      <c r="H312" t="inlineStr">
+        <is>
+          <t>2019-4</t>
+        </is>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -9079,6 +10679,11 @@
         </is>
       </c>
       <c r="G313" t="inlineStr"/>
+      <c r="H313" t="inlineStr">
+        <is>
+          <t>2019-4</t>
+        </is>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -9106,6 +10711,11 @@
         </is>
       </c>
       <c r="G314" t="inlineStr"/>
+      <c r="H314" t="inlineStr">
+        <is>
+          <t>2019-4</t>
+        </is>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -9133,6 +10743,11 @@
         </is>
       </c>
       <c r="G315" t="inlineStr"/>
+      <c r="H315" t="inlineStr">
+        <is>
+          <t>2019-4</t>
+        </is>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -9160,6 +10775,11 @@
         </is>
       </c>
       <c r="G316" t="inlineStr"/>
+      <c r="H316" t="inlineStr">
+        <is>
+          <t>2019-4</t>
+        </is>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -9187,6 +10807,11 @@
         </is>
       </c>
       <c r="G317" t="inlineStr"/>
+      <c r="H317" t="inlineStr">
+        <is>
+          <t>2019-4</t>
+        </is>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -9214,6 +10839,11 @@
         </is>
       </c>
       <c r="G318" t="inlineStr"/>
+      <c r="H318" t="inlineStr">
+        <is>
+          <t>2019-4</t>
+        </is>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -9241,6 +10871,11 @@
         </is>
       </c>
       <c r="G319" t="inlineStr"/>
+      <c r="H319" t="inlineStr">
+        <is>
+          <t>2019-4</t>
+        </is>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -9268,6 +10903,11 @@
         </is>
       </c>
       <c r="G320" t="inlineStr"/>
+      <c r="H320" t="inlineStr">
+        <is>
+          <t>2019-4</t>
+        </is>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -9295,6 +10935,11 @@
         </is>
       </c>
       <c r="G321" t="inlineStr"/>
+      <c r="H321" t="inlineStr">
+        <is>
+          <t>2019-3</t>
+        </is>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -9322,6 +10967,11 @@
         </is>
       </c>
       <c r="G322" t="inlineStr"/>
+      <c r="H322" t="inlineStr">
+        <is>
+          <t>2019-3</t>
+        </is>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -9349,6 +10999,11 @@
         </is>
       </c>
       <c r="G323" t="inlineStr"/>
+      <c r="H323" t="inlineStr">
+        <is>
+          <t>2019-3</t>
+        </is>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -9376,6 +11031,11 @@
         </is>
       </c>
       <c r="G324" t="inlineStr"/>
+      <c r="H324" t="inlineStr">
+        <is>
+          <t>2019-3</t>
+        </is>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -9403,6 +11063,11 @@
         </is>
       </c>
       <c r="G325" t="inlineStr"/>
+      <c r="H325" t="inlineStr">
+        <is>
+          <t>2019-3</t>
+        </is>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -9430,6 +11095,11 @@
         </is>
       </c>
       <c r="G326" t="inlineStr"/>
+      <c r="H326" t="inlineStr">
+        <is>
+          <t>2019-3</t>
+        </is>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -9457,6 +11127,11 @@
         </is>
       </c>
       <c r="G327" t="inlineStr"/>
+      <c r="H327" t="inlineStr">
+        <is>
+          <t>2019-3</t>
+        </is>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -9484,6 +11159,11 @@
         </is>
       </c>
       <c r="G328" t="inlineStr"/>
+      <c r="H328" t="inlineStr">
+        <is>
+          <t>2019-3</t>
+        </is>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -9511,6 +11191,11 @@
         </is>
       </c>
       <c r="G329" t="inlineStr"/>
+      <c r="H329" t="inlineStr">
+        <is>
+          <t>2019-3</t>
+        </is>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -9538,6 +11223,11 @@
         </is>
       </c>
       <c r="G330" t="inlineStr"/>
+      <c r="H330" t="inlineStr">
+        <is>
+          <t>2019-3</t>
+        </is>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -9565,6 +11255,11 @@
         </is>
       </c>
       <c r="G331" t="inlineStr"/>
+      <c r="H331" t="inlineStr">
+        <is>
+          <t>2019-3</t>
+        </is>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -9592,6 +11287,11 @@
         </is>
       </c>
       <c r="G332" t="inlineStr"/>
+      <c r="H332" t="inlineStr">
+        <is>
+          <t>2019-3</t>
+        </is>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -9619,6 +11319,11 @@
         </is>
       </c>
       <c r="G333" t="inlineStr"/>
+      <c r="H333" t="inlineStr">
+        <is>
+          <t>2019-3</t>
+        </is>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -9646,6 +11351,11 @@
         </is>
       </c>
       <c r="G334" t="inlineStr"/>
+      <c r="H334" t="inlineStr">
+        <is>
+          <t>2019-3</t>
+        </is>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -9673,6 +11383,11 @@
         </is>
       </c>
       <c r="G335" t="inlineStr"/>
+      <c r="H335" t="inlineStr">
+        <is>
+          <t>2019-3</t>
+        </is>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -9700,6 +11415,11 @@
         </is>
       </c>
       <c r="G336" t="inlineStr"/>
+      <c r="H336" t="inlineStr">
+        <is>
+          <t>2019-3</t>
+        </is>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -9727,6 +11447,11 @@
         </is>
       </c>
       <c r="G337" t="inlineStr"/>
+      <c r="H337" t="inlineStr">
+        <is>
+          <t>2019-3</t>
+        </is>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -9754,6 +11479,11 @@
         </is>
       </c>
       <c r="G338" t="inlineStr"/>
+      <c r="H338" t="inlineStr">
+        <is>
+          <t>2019-3</t>
+        </is>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -9781,6 +11511,11 @@
         </is>
       </c>
       <c r="G339" t="inlineStr"/>
+      <c r="H339" t="inlineStr">
+        <is>
+          <t>2019-3</t>
+        </is>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -9808,6 +11543,11 @@
         </is>
       </c>
       <c r="G340" t="inlineStr"/>
+      <c r="H340" t="inlineStr">
+        <is>
+          <t>2019-3</t>
+        </is>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -9835,6 +11575,11 @@
         </is>
       </c>
       <c r="G341" t="inlineStr"/>
+      <c r="H341" t="inlineStr">
+        <is>
+          <t>2019-3</t>
+        </is>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -9862,6 +11607,11 @@
         </is>
       </c>
       <c r="G342" t="inlineStr"/>
+      <c r="H342" t="inlineStr">
+        <is>
+          <t>2019-3</t>
+        </is>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -9889,6 +11639,11 @@
         </is>
       </c>
       <c r="G343" t="inlineStr"/>
+      <c r="H343" t="inlineStr">
+        <is>
+          <t>2019-3</t>
+        </is>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -9916,6 +11671,11 @@
         </is>
       </c>
       <c r="G344" t="inlineStr"/>
+      <c r="H344" t="inlineStr">
+        <is>
+          <t>2019-3</t>
+        </is>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -9943,6 +11703,11 @@
         </is>
       </c>
       <c r="G345" t="inlineStr"/>
+      <c r="H345" t="inlineStr">
+        <is>
+          <t>2019-3</t>
+        </is>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -9970,6 +11735,11 @@
         </is>
       </c>
       <c r="G346" t="inlineStr"/>
+      <c r="H346" t="inlineStr">
+        <is>
+          <t>2019-3</t>
+        </is>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -9997,6 +11767,11 @@
         </is>
       </c>
       <c r="G347" t="inlineStr"/>
+      <c r="H347" t="inlineStr">
+        <is>
+          <t>2019-3</t>
+        </is>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -10024,6 +11799,11 @@
         </is>
       </c>
       <c r="G348" t="inlineStr"/>
+      <c r="H348" t="inlineStr">
+        <is>
+          <t>2019-3</t>
+        </is>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -10051,6 +11831,11 @@
         </is>
       </c>
       <c r="G349" t="inlineStr"/>
+      <c r="H349" t="inlineStr">
+        <is>
+          <t>2019-3</t>
+        </is>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -10078,6 +11863,11 @@
         </is>
       </c>
       <c r="G350" t="inlineStr"/>
+      <c r="H350" t="inlineStr">
+        <is>
+          <t>2019-3</t>
+        </is>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -10105,6 +11895,11 @@
         </is>
       </c>
       <c r="G351" t="inlineStr"/>
+      <c r="H351" t="inlineStr">
+        <is>
+          <t>2019-3</t>
+        </is>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -10132,6 +11927,11 @@
         </is>
       </c>
       <c r="G352" t="inlineStr"/>
+      <c r="H352" t="inlineStr">
+        <is>
+          <t>2019-3</t>
+        </is>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -10159,6 +11959,11 @@
         </is>
       </c>
       <c r="G353" t="inlineStr"/>
+      <c r="H353" t="inlineStr">
+        <is>
+          <t>2019-3</t>
+        </is>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -10186,6 +11991,11 @@
         </is>
       </c>
       <c r="G354" t="inlineStr"/>
+      <c r="H354" t="inlineStr">
+        <is>
+          <t>2019-3</t>
+        </is>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -10213,6 +12023,11 @@
         </is>
       </c>
       <c r="G355" t="inlineStr"/>
+      <c r="H355" t="inlineStr">
+        <is>
+          <t>2019-3</t>
+        </is>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -10240,6 +12055,11 @@
         </is>
       </c>
       <c r="G356" t="inlineStr"/>
+      <c r="H356" t="inlineStr">
+        <is>
+          <t>2019-3</t>
+        </is>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -10267,6 +12087,11 @@
         </is>
       </c>
       <c r="G357" t="inlineStr"/>
+      <c r="H357" t="inlineStr">
+        <is>
+          <t>2019-3</t>
+        </is>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -10294,6 +12119,11 @@
         </is>
       </c>
       <c r="G358" t="inlineStr"/>
+      <c r="H358" t="inlineStr">
+        <is>
+          <t>2019-3</t>
+        </is>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -10321,6 +12151,11 @@
         </is>
       </c>
       <c r="G359" t="inlineStr"/>
+      <c r="H359" t="inlineStr">
+        <is>
+          <t>2019-3</t>
+        </is>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -10348,6 +12183,11 @@
         </is>
       </c>
       <c r="G360" t="inlineStr"/>
+      <c r="H360" t="inlineStr">
+        <is>
+          <t>2019-3</t>
+        </is>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -10375,6 +12215,11 @@
         </is>
       </c>
       <c r="G361" t="inlineStr"/>
+      <c r="H361" t="inlineStr">
+        <is>
+          <t>2019-3</t>
+        </is>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -10402,6 +12247,11 @@
         </is>
       </c>
       <c r="G362" t="inlineStr"/>
+      <c r="H362" t="inlineStr">
+        <is>
+          <t>2019-3</t>
+        </is>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -10429,6 +12279,11 @@
         </is>
       </c>
       <c r="G363" t="inlineStr"/>
+      <c r="H363" t="inlineStr">
+        <is>
+          <t>2019-3</t>
+        </is>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
@@ -10456,6 +12311,11 @@
         </is>
       </c>
       <c r="G364" t="inlineStr"/>
+      <c r="H364" t="inlineStr">
+        <is>
+          <t>2019-3</t>
+        </is>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -10483,6 +12343,11 @@
         </is>
       </c>
       <c r="G365" t="inlineStr"/>
+      <c r="H365" t="inlineStr">
+        <is>
+          <t>2019-3</t>
+        </is>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -10510,6 +12375,11 @@
         </is>
       </c>
       <c r="G366" t="inlineStr"/>
+      <c r="H366" t="inlineStr">
+        <is>
+          <t>2019-3</t>
+        </is>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
@@ -10537,6 +12407,11 @@
         </is>
       </c>
       <c r="G367" t="inlineStr"/>
+      <c r="H367" t="inlineStr">
+        <is>
+          <t>2019-3</t>
+        </is>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
@@ -10564,6 +12439,11 @@
         </is>
       </c>
       <c r="G368" t="inlineStr"/>
+      <c r="H368" t="inlineStr">
+        <is>
+          <t>2019-3</t>
+        </is>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
@@ -10591,6 +12471,11 @@
         </is>
       </c>
       <c r="G369" t="inlineStr"/>
+      <c r="H369" t="inlineStr">
+        <is>
+          <t>2019-3</t>
+        </is>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -10618,6 +12503,11 @@
         </is>
       </c>
       <c r="G370" t="inlineStr"/>
+      <c r="H370" t="inlineStr">
+        <is>
+          <t>2019-3</t>
+        </is>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
@@ -10645,6 +12535,11 @@
         </is>
       </c>
       <c r="G371" t="inlineStr"/>
+      <c r="H371" t="inlineStr">
+        <is>
+          <t>2019-3</t>
+        </is>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
@@ -10672,6 +12567,11 @@
         </is>
       </c>
       <c r="G372" t="inlineStr"/>
+      <c r="H372" t="inlineStr">
+        <is>
+          <t>2019-3</t>
+        </is>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
@@ -10699,6 +12599,11 @@
         </is>
       </c>
       <c r="G373" t="inlineStr"/>
+      <c r="H373" t="inlineStr">
+        <is>
+          <t>2019-3</t>
+        </is>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
@@ -10726,6 +12631,11 @@
         </is>
       </c>
       <c r="G374" t="inlineStr"/>
+      <c r="H374" t="inlineStr">
+        <is>
+          <t>2019-3</t>
+        </is>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
@@ -10753,6 +12663,11 @@
         </is>
       </c>
       <c r="G375" t="inlineStr"/>
+      <c r="H375" t="inlineStr">
+        <is>
+          <t>2019-3</t>
+        </is>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
@@ -10780,6 +12695,11 @@
         </is>
       </c>
       <c r="G376" t="inlineStr"/>
+      <c r="H376" t="inlineStr">
+        <is>
+          <t>2019-3</t>
+        </is>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
@@ -10807,6 +12727,11 @@
         </is>
       </c>
       <c r="G377" t="inlineStr"/>
+      <c r="H377" t="inlineStr">
+        <is>
+          <t>2019-3</t>
+        </is>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
@@ -10834,6 +12759,11 @@
         </is>
       </c>
       <c r="G378" t="inlineStr"/>
+      <c r="H378" t="inlineStr">
+        <is>
+          <t>2019-3</t>
+        </is>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
@@ -10861,6 +12791,11 @@
         </is>
       </c>
       <c r="G379" t="inlineStr"/>
+      <c r="H379" t="inlineStr">
+        <is>
+          <t>2019-3</t>
+        </is>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
@@ -10888,6 +12823,11 @@
         </is>
       </c>
       <c r="G380" t="inlineStr"/>
+      <c r="H380" t="inlineStr">
+        <is>
+          <t>2019-3</t>
+        </is>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
@@ -10915,6 +12855,11 @@
         </is>
       </c>
       <c r="G381" t="inlineStr"/>
+      <c r="H381" t="inlineStr">
+        <is>
+          <t>2019-3</t>
+        </is>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
@@ -10942,6 +12887,11 @@
         </is>
       </c>
       <c r="G382" t="inlineStr"/>
+      <c r="H382" t="inlineStr">
+        <is>
+          <t>2019-3</t>
+        </is>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
@@ -10969,6 +12919,11 @@
         </is>
       </c>
       <c r="G383" t="inlineStr"/>
+      <c r="H383" t="inlineStr">
+        <is>
+          <t>2019-3</t>
+        </is>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
@@ -10996,6 +12951,11 @@
         </is>
       </c>
       <c r="G384" t="inlineStr"/>
+      <c r="H384" t="inlineStr">
+        <is>
+          <t>2019-3</t>
+        </is>
+      </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
@@ -11023,6 +12983,11 @@
         </is>
       </c>
       <c r="G385" t="inlineStr"/>
+      <c r="H385" t="inlineStr">
+        <is>
+          <t>2019-3</t>
+        </is>
+      </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
@@ -11048,6 +13013,11 @@
         </is>
       </c>
       <c r="G386" t="inlineStr"/>
+      <c r="H386" t="inlineStr">
+        <is>
+          <t>2019-2</t>
+        </is>
+      </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
@@ -11075,6 +13045,11 @@
         </is>
       </c>
       <c r="G387" t="inlineStr"/>
+      <c r="H387" t="inlineStr">
+        <is>
+          <t>2019-2</t>
+        </is>
+      </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
@@ -11102,6 +13077,11 @@
         </is>
       </c>
       <c r="G388" t="inlineStr"/>
+      <c r="H388" t="inlineStr">
+        <is>
+          <t>2019-2</t>
+        </is>
+      </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
@@ -11129,6 +13109,11 @@
         </is>
       </c>
       <c r="G389" t="inlineStr"/>
+      <c r="H389" t="inlineStr">
+        <is>
+          <t>2019-2</t>
+        </is>
+      </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
@@ -11156,6 +13141,11 @@
         </is>
       </c>
       <c r="G390" t="inlineStr"/>
+      <c r="H390" t="inlineStr">
+        <is>
+          <t>2019-2</t>
+        </is>
+      </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
@@ -11183,6 +13173,11 @@
         </is>
       </c>
       <c r="G391" t="inlineStr"/>
+      <c r="H391" t="inlineStr">
+        <is>
+          <t>2019-2</t>
+        </is>
+      </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
@@ -11208,6 +13203,11 @@
         </is>
       </c>
       <c r="G392" t="inlineStr"/>
+      <c r="H392" t="inlineStr">
+        <is>
+          <t>2019-2</t>
+        </is>
+      </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
@@ -11233,6 +13233,11 @@
         </is>
       </c>
       <c r="G393" t="inlineStr"/>
+      <c r="H393" t="inlineStr">
+        <is>
+          <t>2019-2</t>
+        </is>
+      </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
@@ -11258,6 +13263,11 @@
         </is>
       </c>
       <c r="G394" t="inlineStr"/>
+      <c r="H394" t="inlineStr">
+        <is>
+          <t>2019-2</t>
+        </is>
+      </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
@@ -11283,6 +13293,11 @@
         </is>
       </c>
       <c r="G395" t="inlineStr"/>
+      <c r="H395" t="inlineStr">
+        <is>
+          <t>2019-2</t>
+        </is>
+      </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
@@ -11308,6 +13323,11 @@
         </is>
       </c>
       <c r="G396" t="inlineStr"/>
+      <c r="H396" t="inlineStr">
+        <is>
+          <t>2019-2</t>
+        </is>
+      </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
@@ -11333,6 +13353,11 @@
         </is>
       </c>
       <c r="G397" t="inlineStr"/>
+      <c r="H397" t="inlineStr">
+        <is>
+          <t>2019-2</t>
+        </is>
+      </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
@@ -11358,6 +13383,11 @@
         </is>
       </c>
       <c r="G398" t="inlineStr"/>
+      <c r="H398" t="inlineStr">
+        <is>
+          <t>2019-2</t>
+        </is>
+      </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
@@ -11383,6 +13413,11 @@
         </is>
       </c>
       <c r="G399" t="inlineStr"/>
+      <c r="H399" t="inlineStr">
+        <is>
+          <t>2019-2</t>
+        </is>
+      </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
@@ -11408,6 +13443,11 @@
         </is>
       </c>
       <c r="G400" t="inlineStr"/>
+      <c r="H400" t="inlineStr">
+        <is>
+          <t>2019-2</t>
+        </is>
+      </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
@@ -11433,6 +13473,11 @@
         </is>
       </c>
       <c r="G401" t="inlineStr"/>
+      <c r="H401" t="inlineStr">
+        <is>
+          <t>2019-2</t>
+        </is>
+      </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
@@ -11458,6 +13503,11 @@
         </is>
       </c>
       <c r="G402" t="inlineStr"/>
+      <c r="H402" t="inlineStr">
+        <is>
+          <t>2019-2</t>
+        </is>
+      </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
@@ -11483,6 +13533,11 @@
         </is>
       </c>
       <c r="G403" t="inlineStr"/>
+      <c r="H403" t="inlineStr">
+        <is>
+          <t>2019-2</t>
+        </is>
+      </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
@@ -11508,6 +13563,11 @@
         </is>
       </c>
       <c r="G404" t="inlineStr"/>
+      <c r="H404" t="inlineStr">
+        <is>
+          <t>2019-1</t>
+        </is>
+      </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
@@ -11533,6 +13593,11 @@
         </is>
       </c>
       <c r="G405" t="inlineStr"/>
+      <c r="H405" t="inlineStr">
+        <is>
+          <t>2019-1</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -11646,7 +13711,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11680,6 +13745,11 @@
           <t>total_share</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>quarter</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -11699,6 +13769,11 @@
       <c r="E2" t="n">
         <v>93.70999999999999</v>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2020-2</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -11718,6 +13793,11 @@
       <c r="E3" t="n">
         <v>88.12</v>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2019-4</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -11736,6 +13816,11 @@
       </c>
       <c r="E4" t="n">
         <v>50.29</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2019-2</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -11749,7 +13834,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11768,6 +13853,11 @@
           <t>turnover_rate</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>quarter</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -11778,6 +13868,11 @@
       <c r="B2" t="n">
         <v>217.73</v>
       </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2020-2</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -11788,6 +13883,11 @@
       <c r="B3" t="n">
         <v>113.94</v>
       </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2019-4</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -11797,6 +13897,11 @@
       </c>
       <c r="B4" t="n">
         <v>116.54</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2019-2</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -11869,7 +13974,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5,758.53</t>
+          <t>5758.53</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -11902,7 +14007,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2,046.85</t>
+          <t>2046.85</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -11935,7 +14040,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2,999.36</t>
+          <t>2999.36</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -11968,7 +14073,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1,514.17</t>
+          <t>1514.17</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -12034,7 +14139,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2,207.80</t>
+          <t>2207.80</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -12067,7 +14172,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1,862.17</t>
+          <t>1862.17</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -12100,7 +14205,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2,707.50</t>
+          <t>2707.50</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -12232,7 +14337,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1,669.92</t>
+          <t>1669.92</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -12265,7 +14370,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2,222.80</t>
+          <t>2222.80</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -12298,7 +14403,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2,921.67</t>
+          <t>2921.67</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -12331,7 +14436,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2,509.50</t>
+          <t>2509.50</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -12364,7 +14469,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1,729.15</t>
+          <t>1729.15</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -12430,7 +14535,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1,300.86</t>
+          <t>1300.86</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -12463,7 +14568,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1,546.57</t>
+          <t>1546.57</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -12529,7 +14634,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2,073.37</t>
+          <t>2073.37</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -12562,7 +14667,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>4,053.23</t>
+          <t>4053.23</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -12595,7 +14700,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1,122.21</t>
+          <t>1122.21</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -12628,7 +14733,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2,731.90</t>
+          <t>2731.90</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -12694,7 +14799,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2,551.15</t>
+          <t>2551.15</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -12727,7 +14832,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1,505.02</t>
+          <t>1505.02</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -12793,7 +14898,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2,038.26</t>
+          <t>2038.26</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -12826,7 +14931,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1,991.30</t>
+          <t>1991.30</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -12892,7 +14997,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1,169.31</t>
+          <t>1169.31</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -12925,7 +15030,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1,285.80</t>
+          <t>1285.80</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -13057,7 +15162,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>1,417.28</t>
+          <t>1417.28</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -13249,7 +15354,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>3,194.88</t>
+          <t>3194.88</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -13282,7 +15387,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2,627.82</t>
+          <t>2627.82</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -13315,7 +15420,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>1,989.49</t>
+          <t>1989.49</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -13348,7 +15453,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>1,983.58</t>
+          <t>1983.58</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -13381,7 +15486,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2,388.88</t>
+          <t>2388.88</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -13414,7 +15519,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>1,572.93</t>
+          <t>1572.93</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -13447,7 +15552,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2,628.80</t>
+          <t>2628.80</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -13480,7 +15585,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2,773.30</t>
+          <t>2773.30</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -13513,7 +15618,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2,227.82</t>
+          <t>2227.82</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -13546,7 +15651,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>3,595.34</t>
+          <t>3595.34</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -13678,7 +15783,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2,328.17</t>
+          <t>2328.17</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -13744,7 +15849,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>1,435.80</t>
+          <t>1435.80</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -13810,7 +15915,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>3,987.24</t>
+          <t>3987.24</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -13843,7 +15948,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>1,642.00</t>
+          <t>1642.00</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -13876,7 +15981,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>1,779.21</t>
+          <t>1779.21</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -14107,7 +16212,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>1,986.23</t>
+          <t>1986.23</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -16021,7 +18126,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>2,392.00</t>
+          <t>2392.00</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -16054,7 +18159,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>1,914.90</t>
+          <t>1914.90</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -16087,7 +18192,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>2,704.10</t>
+          <t>2704.10</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -16153,7 +18258,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>3,165.42</t>
+          <t>3165.42</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -16186,7 +18291,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>2,880.46</t>
+          <t>2880.46</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -16219,7 +18324,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>1,421.74</t>
+          <t>1421.74</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -16252,7 +18357,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>3,974.78</t>
+          <t>3974.78</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -16285,7 +18390,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>1,211.28</t>
+          <t>1211.28</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -16318,7 +18423,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>1,658.72</t>
+          <t>1658.72</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -16384,7 +18489,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>1,167.00</t>
+          <t>1167.00</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -16417,7 +18522,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>2,693.67</t>
+          <t>2693.67</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -16483,7 +18588,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>2,391.80</t>
+          <t>2391.80</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -16516,7 +18621,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>2,595.79</t>
+          <t>2595.79</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -16813,7 +18918,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>3,445.57</t>
+          <t>3445.57</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -16846,7 +18951,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>3,221.03</t>
+          <t>3221.03</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -16879,7 +18984,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>1,275.59</t>
+          <t>1275.59</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -16912,7 +19017,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>2,956.80</t>
+          <t>2956.80</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -16978,7 +19083,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>1,994.54</t>
+          <t>1994.54</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -17011,7 +19116,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>3,134.69</t>
+          <t>3134.69</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -17044,7 +19149,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>1,032.32</t>
+          <t>1032.32</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -17077,7 +19182,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>1,079.43</t>
+          <t>1079.43</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -17110,7 +19215,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>1,636.20</t>
+          <t>1636.20</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -17143,7 +19248,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>2,028.03</t>
+          <t>2028.03</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -17176,7 +19281,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>1,826.16</t>
+          <t>1826.16</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -17242,7 +19347,7 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>2,134.77</t>
+          <t>2134.77</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -17341,7 +19446,7 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>4,352.04</t>
+          <t>4352.04</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -17440,7 +19545,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>1,498.31</t>
+          <t>1498.31</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -17473,7 +19578,7 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>1,673.40</t>
+          <t>1673.40</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -17506,7 +19611,7 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>1,000.35</t>
+          <t>1000.35</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -17605,7 +19710,7 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>16,180.00</t>
+          <t>16180.00</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -19156,7 +21261,7 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>3,748.38</t>
+          <t>3748.38</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
@@ -19189,7 +21294,7 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>2,690.05</t>
+          <t>2690.05</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
@@ -19222,7 +21327,7 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>1,371.04</t>
+          <t>1371.04</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
@@ -19255,7 +21360,7 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>2,087.05</t>
+          <t>2087.05</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
@@ -19321,7 +21426,7 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>1,764.49</t>
+          <t>1764.49</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
@@ -19354,7 +21459,7 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>1,812.67</t>
+          <t>1812.67</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
@@ -19387,7 +21492,7 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>1,002.81</t>
+          <t>1002.81</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
@@ -19420,7 +21525,7 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>2,405.96</t>
+          <t>2405.96</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
@@ -19453,7 +21558,7 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>1,980.49</t>
+          <t>1980.49</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
@@ -19486,7 +21591,7 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>1,039.28</t>
+          <t>1039.28</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
@@ -19717,7 +21822,7 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>2,021.97</t>
+          <t>2021.97</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
@@ -19750,7 +21855,7 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>1,617.90</t>
+          <t>1617.90</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
@@ -19783,7 +21888,7 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>1,826.41</t>
+          <t>1826.41</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
@@ -19816,7 +21921,7 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>1,781.91</t>
+          <t>1781.91</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
@@ -19882,7 +21987,7 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>1,640.00</t>
+          <t>1640.00</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
@@ -20014,7 +22119,7 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>1,147.86</t>
+          <t>1147.86</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
@@ -20080,7 +22185,7 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>1,797.38</t>
+          <t>1797.38</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
@@ -20113,7 +22218,7 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>4,545.60</t>
+          <t>4545.60</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
